--- a/data/trans_orig/P27_2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P27_2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>36471</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26106</v>
+        <v>25794</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50391</v>
+        <v>50300</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08103993280470727</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05800694595909988</v>
+        <v>0.05731487193629928</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1119702884737738</v>
+        <v>0.1117664606663451</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -765,19 +765,19 @@
         <v>21487</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13574</v>
+        <v>13114</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32193</v>
+        <v>32366</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07448238051870271</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04705287266096803</v>
+        <v>0.04545834008242852</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.111592437499952</v>
+        <v>0.1121931967479753</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -786,19 +786,19 @@
         <v>57958</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43661</v>
+        <v>44438</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73555</v>
+        <v>74641</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07847840919411561</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05911869288166585</v>
+        <v>0.06017047002463299</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09959653454912061</v>
+        <v>0.1010673983798061</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>216437</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>194941</v>
+        <v>192703</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>237698</v>
+        <v>236585</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4809264408982023</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4331628054712323</v>
+        <v>0.4281886753867956</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5281685347071898</v>
+        <v>0.525694751600208</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>126</v>
@@ -836,19 +836,19 @@
         <v>128660</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>110931</v>
+        <v>111994</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>145350</v>
+        <v>144817</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.445983693847163</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3845293587827055</v>
+        <v>0.388215027441659</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5038392151712758</v>
+        <v>0.5019923576066154</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>336</v>
@@ -857,19 +857,19 @@
         <v>345097</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>318236</v>
+        <v>317652</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>371530</v>
+        <v>372268</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4672770382420926</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4309058925058784</v>
+        <v>0.4301152659188714</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5030685400549924</v>
+        <v>0.5040679579119082</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>115818</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>97052</v>
+        <v>97418</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>137436</v>
+        <v>135593</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.257349406028101</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2156517678466736</v>
+        <v>0.2164644739931298</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3053846350211728</v>
+        <v>0.3012889482559112</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>90</v>
@@ -907,19 +907,19 @@
         <v>93053</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>77179</v>
+        <v>77955</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>110848</v>
+        <v>108830</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3225590635699449</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2675304409452395</v>
+        <v>0.2702234330933123</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3842403960193778</v>
+        <v>0.3772463023763069</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>199</v>
@@ -928,19 +928,19 @@
         <v>208871</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>184329</v>
+        <v>183800</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>234095</v>
+        <v>236136</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2828217271239656</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2495903639930805</v>
+        <v>0.2488736306920997</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3169757352296807</v>
+        <v>0.3197396222570346</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>81315</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>66678</v>
+        <v>65343</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>99338</v>
+        <v>99209</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1806842202689894</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1481604189196186</v>
+        <v>0.1451923080688754</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2207295247813628</v>
+        <v>0.2204438497383095</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -978,19 +978,19 @@
         <v>45285</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32496</v>
+        <v>33821</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59318</v>
+        <v>58810</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1569748620641894</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1126430131529221</v>
+        <v>0.1172351873698781</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2056175638490888</v>
+        <v>0.203857941569022</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>123</v>
@@ -999,19 +999,19 @@
         <v>126600</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>108186</v>
+        <v>107011</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>148672</v>
+        <v>148497</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1714228254398262</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1464889252438948</v>
+        <v>0.1448979151486044</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.201308716192235</v>
+        <v>0.201071502462068</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>38623</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>27876</v>
+        <v>28142</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>51896</v>
+        <v>53075</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1089419772387861</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07862693527518624</v>
+        <v>0.07937775378311095</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1463793238489819</v>
+        <v>0.1497069490818802</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>35</v>
@@ -1124,19 +1124,19 @@
         <v>34433</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24491</v>
+        <v>25425</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46750</v>
+        <v>47882</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0982362254362725</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0698721246701382</v>
+        <v>0.07253745770909426</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1333791480954511</v>
+        <v>0.1366061777706539</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>71</v>
@@ -1145,19 +1145,19 @@
         <v>73056</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>57629</v>
+        <v>58320</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>89159</v>
+        <v>91872</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1036196314177831</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08173892429106046</v>
+        <v>0.08271893404685811</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1264604844583984</v>
+        <v>0.1303085701245151</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>158042</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>138154</v>
+        <v>139370</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>177263</v>
+        <v>177722</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4457805709187393</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.389684520985771</v>
+        <v>0.393113047130552</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4999969032473157</v>
+        <v>0.5012893054966676</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>167</v>
@@ -1195,19 +1195,19 @@
         <v>170953</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>150877</v>
+        <v>153150</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>190512</v>
+        <v>190608</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4877303314802887</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4304534576834088</v>
+        <v>0.4369382044707999</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5435301974245679</v>
+        <v>0.5438036593300252</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>317</v>
@@ -1216,19 +1216,19 @@
         <v>328995</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>300261</v>
+        <v>302243</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>354563</v>
+        <v>355704</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4666358211557583</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4258810596039799</v>
+        <v>0.4286922244729045</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5029003549492044</v>
+        <v>0.5045184774116503</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>93318</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>78066</v>
+        <v>77037</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>112378</v>
+        <v>110830</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.263217716661988</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2201955169128678</v>
+        <v>0.2172951055558581</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3169786009475614</v>
+        <v>0.312613073463545</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>85</v>
@@ -1266,19 +1266,19 @@
         <v>89949</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>73974</v>
+        <v>73824</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>107387</v>
+        <v>105736</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2566246428065962</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2110488813100563</v>
+        <v>0.2106198362405938</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3063754470850689</v>
+        <v>0.3016662926902748</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>173</v>
@@ -1287,19 +1287,19 @@
         <v>183267</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>160213</v>
+        <v>158808</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>208062</v>
+        <v>206706</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.259939981503438</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2272407425239751</v>
+        <v>0.2252485876223193</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2951080597826602</v>
+        <v>0.2931855450184385</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>64545</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>50067</v>
+        <v>50675</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>79229</v>
+        <v>79909</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1820597351804866</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1412216922405471</v>
+        <v>0.1429369817173146</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2234765952190567</v>
+        <v>0.2253946239024776</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>55</v>
@@ -1337,19 +1337,19 @@
         <v>55173</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>42792</v>
+        <v>41598</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>70220</v>
+        <v>68236</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1574088002768426</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1220856097260086</v>
+        <v>0.118679862596885</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2003368594291753</v>
+        <v>0.1946777526735314</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>119</v>
@@ -1358,19 +1358,19 @@
         <v>119718</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>100490</v>
+        <v>100496</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>139656</v>
+        <v>141133</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1698045659230206</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.14253108193458</v>
+        <v>0.1425396311980914</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1980838058872582</v>
+        <v>0.2001781189577135</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>81167</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>65301</v>
+        <v>65349</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>99606</v>
+        <v>98818</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1540073282805401</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1239032640782766</v>
+        <v>0.1239939528312712</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1889939289017315</v>
+        <v>0.1874995071496042</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -1483,19 +1483,19 @@
         <v>16602</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9914</v>
+        <v>10579</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25699</v>
+        <v>25869</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.102523826791939</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0612213258076338</v>
+        <v>0.06533325025611299</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1587064648068099</v>
+        <v>0.1597574543675702</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>96</v>
@@ -1504,19 +1504,19 @@
         <v>97768</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>80086</v>
+        <v>81070</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>116523</v>
+        <v>115967</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1419069834585777</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.116241252180591</v>
+        <v>0.1176707032567371</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.169128930316024</v>
+        <v>0.168322372121034</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>200071</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>178491</v>
+        <v>179480</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>222032</v>
+        <v>223393</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3796174023214356</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3386711162218436</v>
+        <v>0.3405492912691274</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.421286842907479</v>
+        <v>0.4238695503868414</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>54</v>
@@ -1554,19 +1554,19 @@
         <v>55974</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>44461</v>
+        <v>45222</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>68884</v>
+        <v>68559</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3456684997767365</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2745738842069995</v>
+        <v>0.2792722386155659</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4253970275459626</v>
+        <v>0.4233919200130304</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>253</v>
@@ -1575,19 +1575,19 @@
         <v>256044</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>231985</v>
+        <v>229387</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>280796</v>
+        <v>280562</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3716382747322018</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3367169720533019</v>
+        <v>0.3329462152001784</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4075655811099614</v>
+        <v>0.4072257586787065</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>146003</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>123697</v>
+        <v>125226</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>166690</v>
+        <v>167583</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2770291779835382</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2347051540804969</v>
+        <v>0.2376064584010849</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3162799075780336</v>
+        <v>0.3179759418714772</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -1625,19 +1625,19 @@
         <v>44234</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33337</v>
+        <v>33248</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55500</v>
+        <v>55605</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2731668474442785</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2058762228431991</v>
+        <v>0.2053275708332846</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.342744445290818</v>
+        <v>0.3433904176797997</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>185</v>
@@ -1646,19 +1646,19 @@
         <v>190237</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>167478</v>
+        <v>167591</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>213301</v>
+        <v>213966</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2761214011231825</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2430876784778512</v>
+        <v>0.2432521549328463</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3095985671516763</v>
+        <v>0.3105635448548418</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>99791</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>81533</v>
+        <v>82970</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>117607</v>
+        <v>119742</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1893460914144862</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1547019505437473</v>
+        <v>0.1574291457027662</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2231489055163328</v>
+        <v>0.227200464280416</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -1696,19 +1696,19 @@
         <v>45120</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33335</v>
+        <v>34462</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>56705</v>
+        <v>58059</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2786408259870459</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2058589951679235</v>
+        <v>0.2128214709735011</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3501840371397678</v>
+        <v>0.3585438543084205</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>141</v>
@@ -1717,19 +1717,19 @@
         <v>144911</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>123706</v>
+        <v>123871</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>166423</v>
+        <v>170124</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.210333340686038</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.17955493710808</v>
+        <v>0.1797948156131303</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2415569550275776</v>
+        <v>0.2469280654833398</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>166399</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>143500</v>
+        <v>144517</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>192277</v>
+        <v>191963</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1418122257744388</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.122296882177925</v>
+        <v>0.1231631159714385</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1638666069008568</v>
+        <v>0.1635985444383019</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>75</v>
@@ -1842,19 +1842,19 @@
         <v>76320</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61638</v>
+        <v>61640</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>93541</v>
+        <v>94050</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1121697881357898</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09059139036545137</v>
+        <v>0.09059527569432417</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1374808466459683</v>
+        <v>0.138229133175219</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>235</v>
@@ -1863,19 +1863,19 @@
         <v>242719</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>214090</v>
+        <v>214426</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>273889</v>
+        <v>272115</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1309324848798486</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.115489055777723</v>
+        <v>0.1156704289173308</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1477471270651612</v>
+        <v>0.1467900047367822</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>422657</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>390245</v>
+        <v>391830</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>454555</v>
+        <v>456880</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3602057985299739</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3325830164392313</v>
+        <v>0.333933832321748</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3873908228768337</v>
+        <v>0.3893714942503745</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>226</v>
@@ -1913,19 +1913,19 @@
         <v>234398</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>207976</v>
+        <v>207124</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>260447</v>
+        <v>257388</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3445034936523221</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3056698949481314</v>
+        <v>0.3044171010960888</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3827883959129397</v>
+        <v>0.3782927454748561</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>641</v>
@@ -1934,19 +1934,19 @@
         <v>657055</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>617744</v>
+        <v>614655</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>698833</v>
+        <v>697911</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3544425407777178</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3332364140653964</v>
+        <v>0.3315700128245483</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.376979073698686</v>
+        <v>0.3764818930791536</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>327919</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>297471</v>
+        <v>300187</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>357732</v>
+        <v>359094</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2794659652634022</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2535173534618097</v>
+        <v>0.2558320107296761</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3048735030839813</v>
+        <v>0.3060344446909277</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>207</v>
@@ -1984,19 +1984,19 @@
         <v>215316</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>190481</v>
+        <v>192474</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>240669</v>
+        <v>241704</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3164573552569401</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.279956550251371</v>
+        <v>0.282885483500057</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3537195007446595</v>
+        <v>0.3552406917904636</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>529</v>
@@ -2005,19 +2005,19 @@
         <v>543235</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>505509</v>
+        <v>504113</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>583780</v>
+        <v>584763</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2930430112326476</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2726922974839281</v>
+        <v>0.271939009707298</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3149146836912093</v>
+        <v>0.3154448609983463</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>256402</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>229230</v>
+        <v>229546</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>285597</v>
+        <v>282985</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2185160104321852</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1953588088491248</v>
+        <v>0.1956287377531246</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.24339790036085</v>
+        <v>0.2411716747412581</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>153</v>
@@ -2055,19 +2055,19 @@
         <v>154361</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>131922</v>
+        <v>131005</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>176954</v>
+        <v>176450</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2268693629549481</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1938900322820576</v>
+        <v>0.1925430520731596</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2600751973257412</v>
+        <v>0.2593345054378073</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>415</v>
@@ -2076,19 +2076,19 @@
         <v>410762</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>374429</v>
+        <v>376064</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>449501</v>
+        <v>445044</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.221581963109786</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2019823427559387</v>
+        <v>0.2028644331363312</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2424789852845481</v>
+        <v>0.2400748233150824</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>56252</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>42822</v>
+        <v>43949</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>71940</v>
+        <v>69963</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1735882993189694</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1321453007849606</v>
+        <v>0.135622259856855</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2219980325744217</v>
+        <v>0.2158986445966753</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>53</v>
@@ -2201,19 +2201,19 @@
         <v>57316</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>42082</v>
+        <v>44221</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>72387</v>
+        <v>73065</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1074673171169665</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0789047266065334</v>
+        <v>0.08291451718928278</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1357265631115498</v>
+        <v>0.1369972786355454</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>110</v>
@@ -2222,19 +2222,19 @@
         <v>113568</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>94494</v>
+        <v>94190</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>138282</v>
+        <v>136520</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1324582287619563</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1102116267354395</v>
+        <v>0.1098572644002623</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1612822015673262</v>
+        <v>0.1592273037149545</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>127267</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>108983</v>
+        <v>110338</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>145802</v>
+        <v>145779</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3927322997798611</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3363105637486776</v>
+        <v>0.3404908156862947</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4499292601143953</v>
+        <v>0.4498561459987078</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>164</v>
@@ -2272,19 +2272,19 @@
         <v>170807</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>149265</v>
+        <v>147982</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>193781</v>
+        <v>191825</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3202642328940215</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2798723607518052</v>
+        <v>0.2774670337399527</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3633402477083267</v>
+        <v>0.3596726687189722</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>287</v>
@@ -2293,19 +2293,19 @@
         <v>298075</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>270741</v>
+        <v>273670</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>326778</v>
+        <v>326093</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3476540718878586</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3157733807073078</v>
+        <v>0.3191901553721412</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.381131906184521</v>
+        <v>0.3803325907554739</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>67407</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>52332</v>
+        <v>52772</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>84264</v>
+        <v>83828</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2080116057144274</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1614894062784577</v>
+        <v>0.1628478170728159</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2600288618665411</v>
+        <v>0.2586839439878393</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>132</v>
@@ -2343,19 +2343,19 @@
         <v>139410</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>120194</v>
+        <v>119513</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>159032</v>
+        <v>161927</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2613935844365569</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2253641451236584</v>
+        <v>0.224086878066297</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2981866053404453</v>
+        <v>0.3036139757143616</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>194</v>
@@ -2364,19 +2364,19 @@
         <v>206817</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>183212</v>
+        <v>180412</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>232659</v>
+        <v>232877</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2412174728717917</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2136855191741519</v>
+        <v>0.2104203627130027</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2713579957046545</v>
+        <v>0.2716123803828641</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>73129</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>58980</v>
+        <v>60803</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>88798</v>
+        <v>91246</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.225667795186742</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1820043390983563</v>
+        <v>0.1876302961651647</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2740204944588693</v>
+        <v>0.2815759294212364</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>156</v>
@@ -2414,19 +2414,19 @@
         <v>165800</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>145842</v>
+        <v>144722</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>188810</v>
+        <v>189402</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.310874865552455</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2734547146880437</v>
+        <v>0.2713551860258194</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3540192296620971</v>
+        <v>0.3551287005917575</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>229</v>
@@ -2435,19 +2435,19 @@
         <v>238929</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>211145</v>
+        <v>213213</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>263966</v>
+        <v>265055</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2786702264783933</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2462650299485866</v>
+        <v>0.2486770635007333</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.30787214812314</v>
+        <v>0.309141710079721</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>49149</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>37313</v>
+        <v>36206</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>62945</v>
+        <v>62814</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1747170408463676</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.132642244893115</v>
+        <v>0.1287070398688946</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2237614362388437</v>
+        <v>0.2232968421282244</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>61</v>
@@ -2560,19 +2560,19 @@
         <v>59389</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>45081</v>
+        <v>46973</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>75293</v>
+        <v>77341</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04985440207504793</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03784358433056637</v>
+        <v>0.039431750885374</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06320561634396554</v>
+        <v>0.06492467337245826</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>110</v>
@@ -2581,19 +2581,19 @@
         <v>108537</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>89243</v>
+        <v>90737</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>130952</v>
+        <v>130059</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07370724166445247</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06060478898300889</v>
+        <v>0.06161942664163733</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08892899261751552</v>
+        <v>0.08832250573652138</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>149282</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>132874</v>
+        <v>132605</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>164192</v>
+        <v>166020</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5306789108486849</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4723498491951498</v>
+        <v>0.4713954362253077</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.58368050246073</v>
+        <v>0.5901803229163815</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>327</v>
@@ -2631,19 +2631,19 @@
         <v>317865</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>288571</v>
+        <v>289275</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>348134</v>
+        <v>349179</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2668350787227919</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2422442490037655</v>
+        <v>0.2428353593756572</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2922446424497266</v>
+        <v>0.2931220619608279</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>481</v>
@@ -2652,19 +2652,19 @@
         <v>467147</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>429883</v>
+        <v>429600</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>502321</v>
+        <v>503433</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3172378626642625</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.291932028987614</v>
+        <v>0.2917398504232624</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.341124436490473</v>
+        <v>0.3418798259506952</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>46354</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>36252</v>
+        <v>34654</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>58967</v>
+        <v>60292</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1647825147899551</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1288709133047128</v>
+        <v>0.1231911682697555</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2096210432197081</v>
+        <v>0.2143301328516159</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>314</v>
@@ -2702,19 +2702,19 @@
         <v>321422</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>290808</v>
+        <v>291533</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>352797</v>
+        <v>354142</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2698216762264414</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2441222221960934</v>
+        <v>0.2447305755531229</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2961595892558666</v>
+        <v>0.2972881947204795</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>361</v>
@@ -2723,19 +2723,19 @@
         <v>367776</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>339144</v>
+        <v>336863</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>407366</v>
+        <v>403432</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2497557678570151</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2303114096741795</v>
+        <v>0.2287625389667942</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2766413019029786</v>
+        <v>0.2739690700005887</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>36519</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>26851</v>
+        <v>27056</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>49615</v>
+        <v>50115</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1298215335149924</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0954528267184004</v>
+        <v>0.09617895643882675</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1763751681980713</v>
+        <v>0.178151490450435</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>479</v>
@@ -2773,19 +2773,19 @@
         <v>492564</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>460626</v>
+        <v>455467</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>528294</v>
+        <v>526400</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4134888429757188</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3866777024644155</v>
+        <v>0.3823472562383695</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4434823957753616</v>
+        <v>0.4418928529597695</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>517</v>
@@ -2794,19 +2794,19 @@
         <v>529084</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>490301</v>
+        <v>493062</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>566253</v>
+        <v>565545</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.35929912781427</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3329616018486773</v>
+        <v>0.3348367331327047</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3845406801255635</v>
+        <v>0.3840600711858447</v>
       </c>
     </row>
     <row r="33">
@@ -2898,19 +2898,19 @@
         <v>428061</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>388587</v>
+        <v>390472</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>466860</v>
+        <v>469554</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1376252762662545</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1249338199058475</v>
+        <v>0.1255399466447585</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1500995430522765</v>
+        <v>0.1509654356119811</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>261</v>
@@ -2919,19 +2919,19 @@
         <v>265545</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>231864</v>
+        <v>237655</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>297020</v>
+        <v>298597</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08283046563880055</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07232430778324456</v>
+        <v>0.07413084614136729</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09264812723603827</v>
+        <v>0.09314029918220944</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>676</v>
@@ -2940,19 +2940,19 @@
         <v>693606</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>645549</v>
+        <v>642795</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>742863</v>
+        <v>741618</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1098134182539927</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1022048536169605</v>
+        <v>0.1017688244792203</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.11761188580557</v>
+        <v>0.1174147816939656</v>
       </c>
     </row>
     <row r="35">
@@ -2969,19 +2969,19 @@
         <v>1273756</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1218827</v>
+        <v>1218276</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1326984</v>
+        <v>1330666</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4095231788672054</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3918630847240606</v>
+        <v>0.3916859205409923</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4266362944676664</v>
+        <v>0.427820385858972</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1064</v>
@@ -2990,19 +2990,19 @@
         <v>1078657</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1028723</v>
+        <v>1029212</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1134822</v>
+        <v>1132142</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3364610820528853</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3208855313687018</v>
+        <v>0.321037987327548</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3539806290507782</v>
+        <v>0.3531447039175309</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2315</v>
@@ -3011,19 +3011,19 @@
         <v>2352412</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2278533</v>
+        <v>2276588</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>2440136</v>
+        <v>2435239</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.372439509092464</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.36074268595236</v>
+        <v>0.3604347527589402</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3863281374573233</v>
+        <v>0.3855528074442785</v>
       </c>
     </row>
     <row r="36">
@@ -3040,19 +3040,19 @@
         <v>796820</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>749961</v>
+        <v>744940</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>848833</v>
+        <v>846493</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2561841756063884</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.241118723357117</v>
+        <v>0.2395043905538669</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2729069096257199</v>
+        <v>0.2721544739064802</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>872</v>
@@ -3061,19 +3061,19 @@
         <v>903384</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>852110</v>
+        <v>858079</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>955335</v>
+        <v>954609</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2817889161926143</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2657952188026033</v>
+        <v>0.2676570796284013</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2979940063815979</v>
+        <v>0.2977673024649798</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1641</v>
@@ -3082,19 +3082,19 @@
         <v>1700203</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1620615</v>
+        <v>1631586</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1768276</v>
+        <v>1768807</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2691802130316572</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2565795535017871</v>
+        <v>0.2583166161148115</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2799575925850823</v>
+        <v>0.2800417837467597</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>611702</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>566008</v>
+        <v>571576</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>658504</v>
+        <v>654107</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1966673692601517</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1819762502740489</v>
+        <v>0.1837665061211727</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2117146981735769</v>
+        <v>0.21030075607915</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>931</v>
@@ -3132,19 +3132,19 @@
         <v>958303</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>902591</v>
+        <v>910642</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1005794</v>
+        <v>1012209</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2989195361156998</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2815417209074988</v>
+        <v>0.2840529216813521</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3137333985947424</v>
+        <v>0.3157342096283534</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1544</v>
@@ -3153,19 +3153,19 @@
         <v>1570005</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1496180</v>
+        <v>1500355</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1638463</v>
+        <v>1637417</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.248566859621886</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2368788305507207</v>
+        <v>0.2375397362217024</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.259405366742879</v>
+        <v>0.2592398048638446</v>
       </c>
     </row>
     <row r="38">
@@ -3499,19 +3499,19 @@
         <v>5077</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1988</v>
+        <v>1968</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12168</v>
+        <v>10776</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01199158053219643</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004696137233873883</v>
+        <v>0.004649178186897136</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.028741324694651</v>
+        <v>0.02545332995192928</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7764</v>
+        <v>6613</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007239688763596407</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02593459716454881</v>
+        <v>0.02209045168870579</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -3541,19 +3541,19 @@
         <v>7244</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3066</v>
+        <v>2938</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13468</v>
+        <v>14445</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01002332151665462</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004242115866451973</v>
+        <v>0.004065496445429319</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0186345436612443</v>
+        <v>0.0199867584073746</v>
       </c>
     </row>
     <row r="5">
@@ -3570,19 +3570,19 @@
         <v>25700</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16523</v>
+        <v>15163</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39119</v>
+        <v>37046</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06070455595332975</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03902826070670214</v>
+        <v>0.03581546280595981</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09239944730876193</v>
+        <v>0.08750327735333925</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -3591,19 +3591,19 @@
         <v>14558</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8638</v>
+        <v>8660</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23502</v>
+        <v>24340</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04863231763449989</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0288557015337306</v>
+        <v>0.02892733347049171</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07850807364561432</v>
+        <v>0.08130846032989543</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>37</v>
@@ -3612,19 +3612,19 @@
         <v>40259</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29110</v>
+        <v>29611</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54705</v>
+        <v>54928</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0557041701983725</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04027752372198913</v>
+        <v>0.04097148634423709</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0756929242728531</v>
+        <v>0.07600139798507316</v>
       </c>
     </row>
     <row r="6">
@@ -3641,19 +3641,19 @@
         <v>66767</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>52059</v>
+        <v>52301</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>84171</v>
+        <v>83445</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1577030605450996</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1229642311239374</v>
+        <v>0.1235360502824748</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1988132858324642</v>
+        <v>0.1970981395266061</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -3662,19 +3662,19 @@
         <v>34489</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23547</v>
+        <v>23471</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47205</v>
+        <v>48559</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1152110094440798</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07865748265097049</v>
+        <v>0.07840478731412795</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1576869335639369</v>
+        <v>0.1622099236534561</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>97</v>
@@ -3683,19 +3683,19 @@
         <v>101256</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>82895</v>
+        <v>84278</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>122763</v>
+        <v>122665</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1401026254465776</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1146974072143252</v>
+        <v>0.1166114735221947</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1698610901139131</v>
+        <v>0.1697258335512134</v>
       </c>
     </row>
     <row r="7">
@@ -3712,19 +3712,19 @@
         <v>325825</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>304670</v>
+        <v>307767</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>343086</v>
+        <v>343061</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7696008029693742</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7196322566451777</v>
+        <v>0.726948151033717</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8103713097604675</v>
+        <v>0.810312241710291</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>223</v>
@@ -3733,19 +3733,19 @@
         <v>248142</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>233352</v>
+        <v>234543</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>260521</v>
+        <v>262082</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8289169841578239</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7795094266800483</v>
+        <v>0.7834906100094748</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8702688054362392</v>
+        <v>0.8754823745303305</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>519</v>
@@ -3754,19 +3754,19 @@
         <v>573966</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>549216</v>
+        <v>551353</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>596708</v>
+        <v>595057</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7941698828383952</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7599235413182523</v>
+        <v>0.762880196518446</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8256366454466381</v>
+        <v>0.8233513961785464</v>
       </c>
     </row>
     <row r="8">
@@ -3858,19 +3858,19 @@
         <v>10399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5462</v>
+        <v>5170</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16994</v>
+        <v>18063</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02614896089297808</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01373355402552226</v>
+        <v>0.01300003475085802</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04273230469214258</v>
+        <v>0.04541962962942497</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -3879,19 +3879,19 @@
         <v>7037</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13924</v>
+        <v>14372</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02166464671147778</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009258973295112273</v>
+        <v>0.009246526059717328</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04286857189760212</v>
+        <v>0.04424818926110441</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>18</v>
@@ -3900,19 +3900,19 @@
         <v>17436</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10557</v>
+        <v>10792</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>26881</v>
+        <v>26574</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02413299708678512</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01461156282680433</v>
+        <v>0.01493755071066584</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03720622160545613</v>
+        <v>0.03678092525623011</v>
       </c>
     </row>
     <row r="10">
@@ -3929,19 +3929,19 @@
         <v>13874</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7440</v>
+        <v>7134</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23942</v>
+        <v>25383</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03488584837360527</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01870794622580972</v>
+        <v>0.01793957598547308</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0602030769253477</v>
+        <v>0.06382677762800092</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -3950,19 +3950,19 @@
         <v>16661</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9827</v>
+        <v>9032</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28094</v>
+        <v>26594</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05129741588493129</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03025590430903063</v>
+        <v>0.0278077297181572</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08649598817188889</v>
+        <v>0.08187867198119748</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -3971,19 +3971,19 @@
         <v>30535</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20456</v>
+        <v>19782</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44499</v>
+        <v>42088</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04226381627831091</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02831332324961077</v>
+        <v>0.02738047453036951</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06159107413375679</v>
+        <v>0.05825428672295103</v>
       </c>
     </row>
     <row r="11">
@@ -4000,19 +4000,19 @@
         <v>60669</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>47655</v>
+        <v>46894</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>78710</v>
+        <v>78652</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1525561692457537</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1198308148982615</v>
+        <v>0.1179159187555671</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1979207053556256</v>
+        <v>0.1977752775675921</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>44</v>
@@ -4021,19 +4021,19 @@
         <v>51571</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>39053</v>
+        <v>39220</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>68542</v>
+        <v>67536</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1587776667524324</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1202377606653477</v>
+        <v>0.120750038982004</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2110283060218691</v>
+        <v>0.2079321304590526</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>100</v>
@@ -4042,19 +4042,19 @@
         <v>112240</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>92734</v>
+        <v>91537</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>134524</v>
+        <v>132784</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1553530994531701</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1283545632881851</v>
+        <v>0.1266969345156652</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1861960998218326</v>
+        <v>0.1837871094783987</v>
       </c>
     </row>
     <row r="12">
@@ -4071,19 +4071,19 @@
         <v>312744</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>292932</v>
+        <v>293588</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>327732</v>
+        <v>329436</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7864090214876629</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7365900603450199</v>
+        <v>0.7382408286228784</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8240974981677972</v>
+        <v>0.8283829811373469</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>226</v>
@@ -4092,19 +4092,19 @@
         <v>249531</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>230411</v>
+        <v>230877</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>264419</v>
+        <v>264829</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7682602706511585</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7093944812006634</v>
+        <v>0.7108291209222067</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8140984415214051</v>
+        <v>0.8153611576027359</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>501</v>
@@ -4113,19 +4113,19 @@
         <v>562275</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>537128</v>
+        <v>539130</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>584167</v>
+        <v>585807</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7782500871817338</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7434446485312295</v>
+        <v>0.7462146754905461</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8085514036907337</v>
+        <v>0.8108217911402419</v>
       </c>
     </row>
     <row r="13">
@@ -4217,19 +4217,19 @@
         <v>17671</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10876</v>
+        <v>10815</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27332</v>
+        <v>27648</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02864594907948008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01763044448525589</v>
+        <v>0.01753072352432205</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0443058630825907</v>
+        <v>0.04481901800513313</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -4238,19 +4238,19 @@
         <v>2895</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7997</v>
+        <v>8916</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01157471180797732</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003548518937751315</v>
+        <v>0.003611821320313255</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03197776835576861</v>
+        <v>0.03565174191048675</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>21</v>
@@ -4259,19 +4259,19 @@
         <v>20566</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12937</v>
+        <v>13530</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>30550</v>
+        <v>31057</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02372157096878547</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01492136547918602</v>
+        <v>0.01560581665349322</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03523734968633717</v>
+        <v>0.03582234978598675</v>
       </c>
     </row>
     <row r="15">
@@ -4288,19 +4288,19 @@
         <v>42524</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>30894</v>
+        <v>30600</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>56294</v>
+        <v>56092</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06893200757228576</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05007958515757504</v>
+        <v>0.04960428736208013</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09125364322526623</v>
+        <v>0.09092607646031269</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>9</v>
@@ -4309,19 +4309,19 @@
         <v>8920</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4818</v>
+        <v>4840</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17097</v>
+        <v>16099</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03566876322458695</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01926390280830168</v>
+        <v>0.01935233154266538</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06836317349090013</v>
+        <v>0.06437482200933185</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>51</v>
@@ -4330,19 +4330,19 @@
         <v>51444</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>39412</v>
+        <v>38154</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>66292</v>
+        <v>67170</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05933687455694604</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0454583712917381</v>
+        <v>0.04400759048481002</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07646324729530472</v>
+        <v>0.07747531588459994</v>
       </c>
     </row>
     <row r="16">
@@ -4359,19 +4359,19 @@
         <v>73999</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58340</v>
+        <v>58821</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>92060</v>
+        <v>93779</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1199548970221116</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09457063840936189</v>
+        <v>0.09534998106401334</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1492319420468323</v>
+        <v>0.1520185466953369</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -4380,19 +4380,19 @@
         <v>25125</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16574</v>
+        <v>16760</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35736</v>
+        <v>37127</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1004633556300278</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06627336728997681</v>
+        <v>0.06701576035936738</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1428944792579494</v>
+        <v>0.1484554798184562</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>95</v>
@@ -4401,19 +4401,19 @@
         <v>99124</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>82157</v>
+        <v>80506</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>120839</v>
+        <v>119034</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1143323567077606</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09476180383007386</v>
+        <v>0.09285781647387185</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1393785127961519</v>
+        <v>0.1372970650011162</v>
       </c>
     </row>
     <row r="17">
@@ -4430,19 +4430,19 @@
         <v>482698</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>461049</v>
+        <v>458893</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>502688</v>
+        <v>502236</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7824671463261226</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7473734401989912</v>
+        <v>0.7438793705244525</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8148715071792523</v>
+        <v>0.814138736361659</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>199</v>
@@ -4451,19 +4451,19 @@
         <v>213150</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>201270</v>
+        <v>200579</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>223759</v>
+        <v>223719</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.852293169337408</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8047901160601851</v>
+        <v>0.8020274581098203</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8947144554922459</v>
+        <v>0.8945546512345159</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>645</v>
@@ -4472,19 +4472,19 @@
         <v>695848</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>672106</v>
+        <v>671307</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>717615</v>
+        <v>718151</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8026091977665079</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7752249273479976</v>
+        <v>0.7743027213481655</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8277164322085148</v>
+        <v>0.8283342208885183</v>
       </c>
     </row>
     <row r="18">
@@ -4576,19 +4576,19 @@
         <v>38101</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26368</v>
+        <v>26827</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53969</v>
+        <v>51202</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03374892420726214</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02335663242861757</v>
+        <v>0.02376334521123888</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04780473881435945</v>
+        <v>0.04535386576708873</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -4597,19 +4597,19 @@
         <v>16267</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10321</v>
+        <v>9533</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26377</v>
+        <v>25243</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02196271641412811</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01393410946191358</v>
+        <v>0.01287103855527618</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03561163619056231</v>
+        <v>0.03408150134837471</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -4618,19 +4618,19 @@
         <v>54368</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>40517</v>
+        <v>41700</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>70553</v>
+        <v>71700</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02907966175758568</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02167132188731008</v>
+        <v>0.02230377794116834</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03773661024825982</v>
+        <v>0.03835009274400254</v>
       </c>
     </row>
     <row r="20">
@@ -4647,19 +4647,19 @@
         <v>60654</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>46201</v>
+        <v>45545</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>77285</v>
+        <v>78977</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05372663566043043</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04092426688074707</v>
+        <v>0.04034268162861099</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06845779025595387</v>
+        <v>0.06995675053971069</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>50</v>
@@ -4668,19 +4668,19 @@
         <v>52706</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>39718</v>
+        <v>39776</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>69872</v>
+        <v>67558</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07116006699116113</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05362473747345949</v>
+        <v>0.05370312013427223</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09433556059663116</v>
+        <v>0.09121175680299068</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>106</v>
@@ -4689,19 +4689,19 @@
         <v>113361</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>92245</v>
+        <v>94728</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>137181</v>
+        <v>138405</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06063312057146463</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04933918260684211</v>
+        <v>0.05066724450151835</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07337404094037846</v>
+        <v>0.0740285535453183</v>
       </c>
     </row>
     <row r="21">
@@ -4718,19 +4718,19 @@
         <v>125507</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>105254</v>
+        <v>105955</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>145976</v>
+        <v>149749</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.111171792935312</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09323231451722981</v>
+        <v>0.09385364853319075</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1293030916619056</v>
+        <v>0.1326453995088034</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>79</v>
@@ -4739,19 +4739,19 @@
         <v>82627</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>67150</v>
+        <v>66826</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>101163</v>
+        <v>102045</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1115563895442022</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09066097478797121</v>
+        <v>0.09022378867760504</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1365818762664278</v>
+        <v>0.1377732269013752</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>199</v>
@@ -4760,19 +4760,19 @@
         <v>208133</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>180068</v>
+        <v>182210</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>234305</v>
+        <v>236453</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1113241559799556</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09631265422963496</v>
+        <v>0.09745848683681416</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1253224291211744</v>
+        <v>0.1264713148807355</v>
       </c>
     </row>
     <row r="22">
@@ -4789,19 +4789,19 @@
         <v>904681</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>877563</v>
+        <v>876145</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>930980</v>
+        <v>931903</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8013526471969954</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7773318469314616</v>
+        <v>0.7760750588549902</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8246476456763802</v>
+        <v>0.8254648274339438</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>541</v>
@@ -4810,19 +4810,19 @@
         <v>589073</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>565325</v>
+        <v>564855</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>608491</v>
+        <v>610406</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7953208270505085</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7632582546031836</v>
+        <v>0.7626242052592598</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.821538285599257</v>
+        <v>0.8241240995071716</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1386</v>
@@ -4831,19 +4831,19 @@
         <v>1493754</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1459426</v>
+        <v>1457030</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1529812</v>
+        <v>1528422</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7989630616909941</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7806019011432156</v>
+        <v>0.7793204844879598</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8182494229105438</v>
+        <v>0.8175060162235824</v>
       </c>
     </row>
     <row r="23">
@@ -4935,19 +4935,19 @@
         <v>14753</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8727</v>
+        <v>8664</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22888</v>
+        <v>24699</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02974336924686609</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01759410408185666</v>
+        <v>0.01746866826028515</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04614477044260614</v>
+        <v>0.04979787444161313</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>24</v>
@@ -4956,19 +4956,19 @@
         <v>25221</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15323</v>
+        <v>17475</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>36197</v>
+        <v>36684</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03377462762648371</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02051925165776057</v>
+        <v>0.02340149380822202</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04847288220629171</v>
+        <v>0.04912589376750933</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>39</v>
@@ -4977,19 +4977,19 @@
         <v>39973</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>28198</v>
+        <v>28217</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>53258</v>
+        <v>52664</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03216568964560279</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02269013558492064</v>
+        <v>0.02270541079181492</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04285556771705817</v>
+        <v>0.0423773234046076</v>
       </c>
     </row>
     <row r="25">
@@ -5006,19 +5006,19 @@
         <v>38257</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27538</v>
+        <v>27929</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52525</v>
+        <v>51117</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07713224010362271</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05552098414625393</v>
+        <v>0.0563084193973379</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1058983987125629</v>
+        <v>0.1030597582599108</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -5027,19 +5027,19 @@
         <v>31362</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22376</v>
+        <v>21764</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44290</v>
+        <v>44482</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04199909317615061</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02996506128853979</v>
+        <v>0.02914495018757874</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05931103617872013</v>
+        <v>0.05956881173243261</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>66</v>
@@ -5048,19 +5048,19 @@
         <v>69619</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>53921</v>
+        <v>53748</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>86903</v>
+        <v>87137</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05602127909340292</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04338907489905423</v>
+        <v>0.0432495164950796</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06992905371656144</v>
+        <v>0.07011714068782966</v>
       </c>
     </row>
     <row r="26">
@@ -5077,19 +5077,19 @@
         <v>50250</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37463</v>
+        <v>38585</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>66184</v>
+        <v>64768</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1013110146680711</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07553132873678138</v>
+        <v>0.07779362140121907</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1334368640752786</v>
+        <v>0.1305825708743557</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>58</v>
@@ -5098,19 +5098,19 @@
         <v>62438</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48312</v>
+        <v>48344</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>79441</v>
+        <v>80007</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08361408709521746</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06469663822312598</v>
+        <v>0.06474008273321653</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1063834566765166</v>
+        <v>0.1071412383163986</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>108</v>
@@ -5119,19 +5119,19 @@
         <v>112688</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>93242</v>
+        <v>93872</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>133967</v>
+        <v>135487</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09067720640824044</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07502980369274077</v>
+        <v>0.07553688052765209</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1078001280779694</v>
+        <v>0.1090230479320073</v>
       </c>
     </row>
     <row r="27">
@@ -5148,19 +5148,19 @@
         <v>392735</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>376031</v>
+        <v>374051</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>411688</v>
+        <v>408903</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7918133759814401</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7581367584489995</v>
+        <v>0.7541451263964948</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8300271246309763</v>
+        <v>0.824410947126655</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>577</v>
@@ -5169,19 +5169,19 @@
         <v>627718</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>606713</v>
+        <v>607106</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>646785</v>
+        <v>646554</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8406121921021482</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8124831970817559</v>
+        <v>0.813009621871833</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8661464080575512</v>
+        <v>0.8658363211536376</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>951</v>
@@ -5190,19 +5190,19 @@
         <v>1020453</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>991563</v>
+        <v>990122</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1043856</v>
+        <v>1046522</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8211358248527538</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7978886361093157</v>
+        <v>0.7967290990952191</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8399679691433296</v>
+        <v>0.8421133616465112</v>
       </c>
     </row>
     <row r="28">
@@ -5294,19 +5294,19 @@
         <v>5982</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2031</v>
+        <v>2653</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12716</v>
+        <v>11979</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02281511580356034</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007746306044176776</v>
+        <v>0.01011932045054415</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04850014546397928</v>
+        <v>0.045688378333718</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>14</v>
@@ -5315,19 +5315,19 @@
         <v>14705</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7880</v>
+        <v>8840</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>24139</v>
+        <v>26217</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01379099898050206</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.007389965092679169</v>
+        <v>0.008290733589703208</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02263886836917368</v>
+        <v>0.02458831273815897</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>20</v>
@@ -5336,19 +5336,19 @@
         <v>20687</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12904</v>
+        <v>13156</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>31312</v>
+        <v>31453</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01557208297369296</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.009713942378759333</v>
+        <v>0.009903646427504794</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02357034505283963</v>
+        <v>0.02367664686623486</v>
       </c>
     </row>
     <row r="30">
@@ -5365,19 +5365,19 @@
         <v>27263</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18686</v>
+        <v>18203</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>37545</v>
+        <v>37122</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1039817677158673</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0712665610515504</v>
+        <v>0.06942688391985624</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1431971411265993</v>
+        <v>0.1415839427007362</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>51</v>
@@ -5386,19 +5386,19 @@
         <v>52483</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>40390</v>
+        <v>39556</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>68224</v>
+        <v>67625</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04922203798369192</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03788055275861589</v>
+        <v>0.03709816728058409</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06398559204041462</v>
+        <v>0.06342330921677784</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>79</v>
@@ -5407,19 +5407,19 @@
         <v>79746</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>64499</v>
+        <v>63813</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>98636</v>
+        <v>99807</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06002992977075584</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04855244735650029</v>
+        <v>0.04803580188322246</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07424981348547617</v>
+        <v>0.07513101553011282</v>
       </c>
     </row>
     <row r="31">
@@ -5436,19 +5436,19 @@
         <v>48443</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>37119</v>
+        <v>36846</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>62137</v>
+        <v>61955</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1847616195741497</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1415719842352395</v>
+        <v>0.1405283403050964</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2369889436395086</v>
+        <v>0.2362957952850203</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>100</v>
@@ -5457,19 +5457,19 @@
         <v>102359</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>85947</v>
+        <v>85214</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>125193</v>
+        <v>121444</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09599957393843002</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08060757944239713</v>
+        <v>0.07991937219798374</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1174145052812251</v>
+        <v>0.1138992209671213</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>148</v>
@@ -5478,19 +5478,19 @@
         <v>150802</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>127575</v>
+        <v>129925</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>172363</v>
+        <v>176539</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1135184804180873</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09603372902845828</v>
+        <v>0.09780251162848824</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1297484318148264</v>
+        <v>0.1328921351738085</v>
       </c>
     </row>
     <row r="32">
@@ -5507,19 +5507,19 @@
         <v>180505</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>164973</v>
+        <v>164201</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>194803</v>
+        <v>194462</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6884414969064228</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6292032115542959</v>
+        <v>0.6262612274978091</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7429737541683815</v>
+        <v>0.7416741837926146</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>838</v>
@@ -5528,19 +5528,19 @@
         <v>896699</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>871686</v>
+        <v>871470</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>919591</v>
+        <v>918600</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.840987389097376</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8175292188732872</v>
+        <v>0.8173258955343063</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8624576621460093</v>
+        <v>0.8615284208057058</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1016</v>
@@ -5549,19 +5549,19 @@
         <v>1077203</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1048331</v>
+        <v>1048742</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1104452</v>
+        <v>1104538</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8108795068374639</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7891459085788517</v>
+        <v>0.7894547095437205</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8313913857110878</v>
+        <v>0.831456100901066</v>
       </c>
     </row>
     <row r="33">
@@ -5653,19 +5653,19 @@
         <v>91982</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>73247</v>
+        <v>74528</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>112021</v>
+        <v>113069</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02766327240523885</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0220285837939568</v>
+        <v>0.02241406120211782</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03368970094302602</v>
+        <v>0.0340048411989885</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>66</v>
@@ -5674,19 +5674,19 @@
         <v>68291</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>53694</v>
+        <v>52395</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>86665</v>
+        <v>85554</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01992216234284196</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01566381617822496</v>
+        <v>0.01528471704739464</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02528207879953829</v>
+        <v>0.02495812130683109</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>157</v>
@@ -5695,19 +5695,19 @@
         <v>160274</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>136849</v>
+        <v>137610</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>186517</v>
+        <v>185626</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0237337802588964</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02026501941930089</v>
+        <v>0.02037761705311695</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0276199882818066</v>
+        <v>0.02748806608944789</v>
       </c>
     </row>
     <row r="35">
@@ -5724,19 +5724,19 @@
         <v>208272</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>181473</v>
+        <v>180947</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>240207</v>
+        <v>239101</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06263685915815555</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05457708774288948</v>
+        <v>0.05441905387664994</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07224092056984531</v>
+        <v>0.07190836673036517</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>169</v>
@@ -5745,19 +5745,19 @@
         <v>176692</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>151313</v>
+        <v>152611</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>202856</v>
+        <v>203500</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05154510712639682</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04414151149497402</v>
+        <v>0.04452016049907443</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05917784833638678</v>
+        <v>0.05936574447010113</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>366</v>
@@ -5766,19 +5766,19 @@
         <v>384964</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>347846</v>
+        <v>350143</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>423973</v>
+        <v>422516</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05700653583932154</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05151003429908231</v>
+        <v>0.05185012438872245</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06278309357764456</v>
+        <v>0.06256731098273631</v>
       </c>
     </row>
     <row r="36">
@@ -5795,19 +5795,19 @@
         <v>425635</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>386879</v>
+        <v>389537</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>468803</v>
+        <v>464412</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1280074758981281</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1163519197699842</v>
+        <v>0.1171512056630263</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1409901436939807</v>
+        <v>0.1396696229451349</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>334</v>
@@ -5816,19 +5816,19 @@
         <v>358609</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>323640</v>
+        <v>323433</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>394587</v>
+        <v>398980</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1046146154397605</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09441337838046089</v>
+        <v>0.09435303813901297</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1151104104767261</v>
+        <v>0.1163919278408389</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>747</v>
@@ -5837,19 +5837,19 @@
         <v>784244</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>733486</v>
+        <v>732905</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>841494</v>
+        <v>835935</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.116132943600989</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1086166018964386</v>
+        <v>0.1085306425527635</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.124610742358451</v>
+        <v>0.1237876048350398</v>
       </c>
     </row>
     <row r="37">
@@ -5866,19 +5866,19 @@
         <v>2599187</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2549209</v>
+        <v>2549883</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2649928</v>
+        <v>2649765</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.7816923925384776</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7666620047324552</v>
+        <v>0.7668644456910988</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7969527557840534</v>
+        <v>0.7969037205295386</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2604</v>
@@ -5887,19 +5887,19 @@
         <v>2824312</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2773455</v>
+        <v>2770217</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2865082</v>
+        <v>2865580</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.8239181150910007</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8090819336100945</v>
+        <v>0.8081371857246856</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8358116433762807</v>
+        <v>0.8359568110889438</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5018</v>
@@ -5908,19 +5908,19 @@
         <v>5423500</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>5354826</v>
+        <v>5355708</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>5485726</v>
+        <v>5488782</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.803126740300793</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.7929574188817441</v>
+        <v>0.7930879405057284</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8123414454492679</v>
+        <v>0.8127939087486677</v>
       </c>
     </row>
     <row r="38">
@@ -6254,19 +6254,19 @@
         <v>10170</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4875</v>
+        <v>4314</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18435</v>
+        <v>19083</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0240451570933149</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01152610307257204</v>
+        <v>0.01020056606119064</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04358803547347904</v>
+        <v>0.04511879131024118</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -6275,19 +6275,19 @@
         <v>11512</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6044</v>
+        <v>5806</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19385</v>
+        <v>18886</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03369956028188299</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01769307380088486</v>
+        <v>0.01699733022247867</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05674700867540648</v>
+        <v>0.05528583144705088</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -6296,19 +6296,19 @@
         <v>21682</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13728</v>
+        <v>13680</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32969</v>
+        <v>32308</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02835883480518016</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01795550745074384</v>
+        <v>0.01789347491797608</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04312269802327436</v>
+        <v>0.04225786004404929</v>
       </c>
     </row>
     <row r="5">
@@ -6325,19 +6325,19 @@
         <v>20294</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12353</v>
+        <v>12338</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31886</v>
+        <v>31843</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0479835123178233</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02920674910553063</v>
+        <v>0.0291713694907133</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07539212063045087</v>
+        <v>0.07528837334251021</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -6346,19 +6346,19 @@
         <v>22034</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14066</v>
+        <v>13823</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32721</v>
+        <v>32408</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06450034374362483</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04117686978780637</v>
+        <v>0.04046430684829153</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09578650407135482</v>
+        <v>0.09486938040396992</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -6367,19 +6367,19 @@
         <v>42328</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30558</v>
+        <v>30802</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57404</v>
+        <v>58768</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0553633871998338</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03996842527910217</v>
+        <v>0.0402878606694707</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07508230114056806</v>
+        <v>0.07686636895631471</v>
       </c>
     </row>
     <row r="6">
@@ -6396,19 +6396,19 @@
         <v>74733</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>59159</v>
+        <v>60354</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>90788</v>
+        <v>93172</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1766973823003106</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1398747007688674</v>
+        <v>0.1427001917820572</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2146571858890975</v>
+        <v>0.220295200576023</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>56</v>
@@ -6417,19 +6417,19 @@
         <v>59737</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46428</v>
+        <v>45817</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>76217</v>
+        <v>75307</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1748705614700757</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.135910726947182</v>
+        <v>0.1341221740387742</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2231117764665277</v>
+        <v>0.2204491752875434</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>126</v>
@@ -6438,19 +6438,19 @@
         <v>134470</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>114293</v>
+        <v>113316</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>159676</v>
+        <v>157142</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1758811416539404</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1494903501683063</v>
+        <v>0.148212054669935</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2088490127532923</v>
+        <v>0.2055351370093541</v>
       </c>
     </row>
     <row r="7">
@@ -6467,19 +6467,19 @@
         <v>317745</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>298495</v>
+        <v>296928</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>335477</v>
+        <v>334194</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7512739482885512</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7057578589426021</v>
+        <v>0.7020545053959332</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7931983769782708</v>
+        <v>0.7901657628478838</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>237</v>
@@ -6488,19 +6488,19 @@
         <v>248325</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>230680</v>
+        <v>230958</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>264496</v>
+        <v>265090</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7269295345044166</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6752780542495993</v>
+        <v>0.6760918431898505</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7742686640115767</v>
+        <v>0.7760059253886306</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>531</v>
@@ -6509,19 +6509,19 @@
         <v>566070</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>537708</v>
+        <v>541076</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>589726</v>
+        <v>589456</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7403966363410457</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7032998394379004</v>
+        <v>0.7077049791179983</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.771336853124302</v>
+        <v>0.7709848113590376</v>
       </c>
     </row>
     <row r="8">
@@ -6613,19 +6613,19 @@
         <v>9145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3979</v>
+        <v>4145</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17112</v>
+        <v>16469</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02486315177723104</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01081801573450688</v>
+        <v>0.01127037803499788</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04652485667612537</v>
+        <v>0.04477782637674169</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -6634,19 +6634,19 @@
         <v>12437</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6703</v>
+        <v>5982</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21811</v>
+        <v>20996</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03422756447607572</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01844666769501511</v>
+        <v>0.01646404227294532</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06002794045622423</v>
+        <v>0.05778265409656559</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>20</v>
@@ -6655,19 +6655,19 @@
         <v>21581</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12643</v>
+        <v>13598</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>31593</v>
+        <v>32921</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02951689006697863</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01729249498132506</v>
+        <v>0.01859821923882517</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04321004759305417</v>
+        <v>0.04502644618995916</v>
       </c>
     </row>
     <row r="10">
@@ -6684,19 +6684,19 @@
         <v>27178</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18302</v>
+        <v>18581</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38479</v>
+        <v>39097</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07389279926456908</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04976068515385972</v>
+        <v>0.05052093072301002</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1046205168296877</v>
+        <v>0.1062995459532478</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -6705,19 +6705,19 @@
         <v>28185</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19552</v>
+        <v>18944</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40235</v>
+        <v>40093</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07757025694864145</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05380890679240642</v>
+        <v>0.05213546189877771</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1107317747650427</v>
+        <v>0.1103407061839245</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -6726,19 +6726,19 @@
         <v>55363</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41506</v>
+        <v>42257</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71365</v>
+        <v>71527</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07572034853900521</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05676820851153427</v>
+        <v>0.05779527285820859</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0976068932074742</v>
+        <v>0.09782760031572635</v>
       </c>
     </row>
     <row r="11">
@@ -6755,19 +6755,19 @@
         <v>58966</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45985</v>
+        <v>45758</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>75052</v>
+        <v>74213</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1603228926400609</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1250275375461346</v>
+        <v>0.1244098518973026</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2040568694973111</v>
+        <v>0.2017764535047807</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>57</v>
@@ -6776,19 +6776,19 @@
         <v>59335</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>46281</v>
+        <v>46540</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>74826</v>
+        <v>77024</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.163299774529385</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1273714992646331</v>
+        <v>0.1280836960296397</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2059325101085481</v>
+        <v>0.211981267619968</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>113</v>
@@ -6797,19 +6797,19 @@
         <v>118302</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>99957</v>
+        <v>100441</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>138953</v>
+        <v>141157</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1618022837858732</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1367123794640709</v>
+        <v>0.1373739712541642</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1900467751161202</v>
+        <v>0.1930614493772053</v>
       </c>
     </row>
     <row r="12">
@@ -6826,19 +6826,19 @@
         <v>272509</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>254449</v>
+        <v>255949</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>287833</v>
+        <v>288654</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.740921156318139</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6918169767979244</v>
+        <v>0.695895806005261</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7825849381894733</v>
+        <v>0.7848164887505873</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>248</v>
@@ -6847,19 +6847,19 @@
         <v>263395</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>245753</v>
+        <v>245950</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>280034</v>
+        <v>280047</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7249024040458979</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6763471702145073</v>
+        <v>0.6768902348149314</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7706942306356963</v>
+        <v>0.7707310766360128</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>504</v>
@@ -6868,19 +6868,19 @@
         <v>535905</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>510510</v>
+        <v>510986</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>561468</v>
+        <v>558578</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7329604776081429</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6982276947002445</v>
+        <v>0.6988782581387356</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7679233526418286</v>
+        <v>0.7639706845579081</v>
       </c>
     </row>
     <row r="13">
@@ -6972,19 +6972,19 @@
         <v>29292</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20897</v>
+        <v>20013</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42819</v>
+        <v>42439</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05764120969103229</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04112252711013498</v>
+        <v>0.03938128167381248</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08426140441633342</v>
+        <v>0.08351295784399826</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -6993,19 +6993,19 @@
         <v>5841</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2123</v>
+        <v>2091</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12529</v>
+        <v>13182</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03696234855836299</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01343604045844951</v>
+        <v>0.01323032096882825</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07928603850529771</v>
+        <v>0.08341463704032655</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -7014,19 +7014,19 @@
         <v>35133</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24542</v>
+        <v>24499</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48620</v>
+        <v>48446</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05273607602568352</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03683887385852128</v>
+        <v>0.03677429775871572</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07298141562855603</v>
+        <v>0.07272038281434932</v>
       </c>
     </row>
     <row r="15">
@@ -7043,19 +7043,19 @@
         <v>30474</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>20929</v>
+        <v>21214</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>42688</v>
+        <v>43316</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05996773141733815</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04118535384713499</v>
+        <v>0.04174617469107365</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08400384710490302</v>
+        <v>0.08523885595577431</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>8</v>
@@ -7064,19 +7064,19 @@
         <v>8342</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3809</v>
+        <v>3745</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>15135</v>
+        <v>15804</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.052790109304456</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02410576683402818</v>
+        <v>0.02370124087414747</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09577798285184565</v>
+        <v>0.1000057985428268</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>37</v>
@@ -7085,19 +7085,19 @@
         <v>38816</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>27760</v>
+        <v>27484</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>52097</v>
+        <v>52626</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05826516203321341</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04166879474386241</v>
+        <v>0.04125533930948912</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07820067173995277</v>
+        <v>0.07899438946799624</v>
       </c>
     </row>
     <row r="16">
@@ -7114,19 +7114,19 @@
         <v>97969</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>80891</v>
+        <v>78386</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>117788</v>
+        <v>115905</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.192786609382368</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.159179161004627</v>
+        <v>0.1542513283210211</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2317869972492658</v>
+        <v>0.2280816323890064</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -7135,19 +7135,19 @@
         <v>28336</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19745</v>
+        <v>19767</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39959</v>
+        <v>38918</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1793146329732738</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1249509375289808</v>
+        <v>0.1250876295144086</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2528660656167095</v>
+        <v>0.2462732508509213</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>118</v>
@@ -7156,19 +7156,19 @@
         <v>126305</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>108059</v>
+        <v>104785</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>149258</v>
+        <v>147086</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1895909863449545</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1622015422449292</v>
+        <v>0.1572878794880144</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2240441993240133</v>
+        <v>0.2207838931029565</v>
       </c>
     </row>
     <row r="17">
@@ -7185,19 +7185,19 @@
         <v>350438</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>327962</v>
+        <v>330082</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>371565</v>
+        <v>372485</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6896044495092616</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6453756235072906</v>
+        <v>0.6495459148840639</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7311789129593864</v>
+        <v>0.732989394790912</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>105</v>
@@ -7206,19 +7206,19 @@
         <v>115506</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>103004</v>
+        <v>102307</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>126256</v>
+        <v>126752</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7309329091639072</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6518195860777884</v>
+        <v>0.6474035878928308</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7989579366047384</v>
+        <v>0.802096948873831</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>447</v>
@@ -7227,19 +7227,19 @@
         <v>465945</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>439406</v>
+        <v>440622</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>489891</v>
+        <v>489253</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6994077755961485</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6595711613873808</v>
+        <v>0.6613976574113481</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7353521997981211</v>
+        <v>0.7343945219644682</v>
       </c>
     </row>
     <row r="18">
@@ -7331,19 +7331,19 @@
         <v>41795</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30280</v>
+        <v>29987</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>56931</v>
+        <v>56118</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03727694406790062</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02700654740014129</v>
+        <v>0.0267449846614177</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05077623331099144</v>
+        <v>0.05005170695035108</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -7352,19 +7352,19 @@
         <v>43548</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>32421</v>
+        <v>31764</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>58010</v>
+        <v>56733</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05406149944438901</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04024839566998508</v>
+        <v>0.03943230268730916</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07201518786263399</v>
+        <v>0.07042958560389442</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>81</v>
@@ -7373,19 +7373,19 @@
         <v>85343</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>68820</v>
+        <v>69066</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>106172</v>
+        <v>106548</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04429420428579226</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03571860718536132</v>
+        <v>0.03584637227266878</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05510481203478965</v>
+        <v>0.05530001539436169</v>
       </c>
     </row>
     <row r="20">
@@ -7402,19 +7402,19 @@
         <v>117840</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>98879</v>
+        <v>99023</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>139357</v>
+        <v>142145</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1051012473173855</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08819003288599479</v>
+        <v>0.08831826878198588</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1242923594494885</v>
+        <v>0.1267793071433171</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>69</v>
@@ -7423,19 +7423,19 @@
         <v>71844</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>56729</v>
+        <v>55583</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>89311</v>
+        <v>88749</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08918893526710392</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07042566045894165</v>
+        <v>0.06900208711938639</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1108734774748722</v>
+        <v>0.1101750079505927</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>178</v>
@@ -7444,19 +7444,19 @@
         <v>189684</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>166155</v>
+        <v>166045</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>217372</v>
+        <v>216779</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09844865320211142</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08623705923380721</v>
+        <v>0.08617997899473241</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1128195298878524</v>
+        <v>0.1125117576785328</v>
       </c>
     </row>
     <row r="21">
@@ -7473,19 +7473,19 @@
         <v>222128</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>195263</v>
+        <v>197015</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>248235</v>
+        <v>251782</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1981153976560196</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1741548786053995</v>
+        <v>0.1757169193506622</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2214001933357893</v>
+        <v>0.2245636009711308</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>157</v>
@@ -7494,19 +7494,19 @@
         <v>164061</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>141030</v>
+        <v>141523</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>187278</v>
+        <v>188745</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2036707000151873</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1750792652598245</v>
+        <v>0.17569114229711</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2324923745088831</v>
+        <v>0.2343141378990223</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>367</v>
@@ -7515,19 +7515,19 @@
         <v>386189</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>351489</v>
+        <v>352666</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>421932</v>
+        <v>423076</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2004379496312691</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1824280191047306</v>
+        <v>0.1830387539516024</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2189889353245106</v>
+        <v>0.2195827914799501</v>
       </c>
     </row>
     <row r="22">
@@ -7544,19 +7544,19 @@
         <v>739441</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>709518</v>
+        <v>706997</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>772108</v>
+        <v>768626</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6595064109586943</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6328182941529304</v>
+        <v>0.6305696134393487</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.688641753646447</v>
+        <v>0.6855364611713224</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>508</v>
@@ -7565,19 +7565,19 @@
         <v>526070</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>499029</v>
+        <v>496800</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>551094</v>
+        <v>552806</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6530788652733197</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6195096590019609</v>
+        <v>0.61674272964596</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.684144854216142</v>
+        <v>0.6862692827512187</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1229</v>
@@ -7586,19 +7586,19 @@
         <v>1265511</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1225477</v>
+        <v>1222236</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1304665</v>
+        <v>1311313</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6568191928808272</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6360409799136729</v>
+        <v>0.6343587218561013</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.677140419471038</v>
+        <v>0.6805911223694391</v>
       </c>
     </row>
     <row r="23">
@@ -7690,19 +7690,19 @@
         <v>22262</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14017</v>
+        <v>14769</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32896</v>
+        <v>33190</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03640893659894909</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02292414108668649</v>
+        <v>0.02415428541545516</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05380099483821457</v>
+        <v>0.05428232703109894</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>16</v>
@@ -7711,19 +7711,19 @@
         <v>16529</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>10202</v>
+        <v>9704</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>26624</v>
+        <v>26262</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02288590031212038</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01412519028134636</v>
+        <v>0.01343537392297582</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03686279252859419</v>
+        <v>0.03636215870481681</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>37</v>
@@ -7732,19 +7732,19 @@
         <v>38791</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>27253</v>
+        <v>27777</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>52118</v>
+        <v>53568</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02908562482969763</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02043462355619273</v>
+        <v>0.02082736127072224</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03907813645472916</v>
+        <v>0.04016563797181648</v>
       </c>
     </row>
     <row r="25">
@@ -7761,19 +7761,19 @@
         <v>46177</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>34487</v>
+        <v>34175</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60056</v>
+        <v>61077</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07552177931931998</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05640302231311911</v>
+        <v>0.05589333668989818</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09822147242646416</v>
+        <v>0.09989182598175592</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>42</v>
@@ -7782,19 +7782,19 @@
         <v>43322</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32364</v>
+        <v>31732</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>57736</v>
+        <v>57708</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05998284426084391</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0448103864203641</v>
+        <v>0.04393450201533077</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07993905051328666</v>
+        <v>0.079900455739322</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>87</v>
@@ -7803,19 +7803,19 @@
         <v>89499</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>72744</v>
+        <v>71380</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>111165</v>
+        <v>107358</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06710677076785965</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05454350213877839</v>
+        <v>0.05352141162395858</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08335217087897599</v>
+        <v>0.08049789485682239</v>
       </c>
     </row>
     <row r="26">
@@ -7832,19 +7832,19 @@
         <v>91649</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>72517</v>
+        <v>74192</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>110057</v>
+        <v>112557</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1498913173061511</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1186017011748751</v>
+        <v>0.1213401812032559</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1799975763966712</v>
+        <v>0.1840866145874564</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>95</v>
@@ -7853,19 +7853,19 @@
         <v>99162</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>81608</v>
+        <v>79981</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>118467</v>
+        <v>117640</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1372961204819686</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1129913329574439</v>
+        <v>0.110739567840707</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1640260208350761</v>
+        <v>0.1628808489253873</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>178</v>
@@ -7874,19 +7874,19 @@
         <v>190810</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>163845</v>
+        <v>166333</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>216074</v>
+        <v>220501</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1430704709235666</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.122851852604758</v>
+        <v>0.1247176166151917</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1620133531843573</v>
+        <v>0.1653326857973878</v>
       </c>
     </row>
     <row r="27">
@@ -7903,19 +7903,19 @@
         <v>451347</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>429517</v>
+        <v>429234</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>474202</v>
+        <v>472653</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7381779667755798</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7024752967351533</v>
+        <v>0.7020117972586689</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7755569500214374</v>
+        <v>0.7730238801358827</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>531</v>
@@ -7924,19 +7924,19 @@
         <v>563233</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>541192</v>
+        <v>539481</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>587457</v>
+        <v>586235</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7798351349450672</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7493178967074393</v>
+        <v>0.7469490631860964</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8133748015341706</v>
+        <v>0.8116835576742335</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>970</v>
@@ -7945,19 +7945,19 @@
         <v>1014580</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>984221</v>
+        <v>983092</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1048202</v>
+        <v>1046984</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7607371334788762</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7379737597913385</v>
+        <v>0.7371275696624601</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7859474405238698</v>
+        <v>0.7850337844916253</v>
       </c>
     </row>
     <row r="28">
@@ -8049,19 +8049,19 @@
         <v>12986</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6793</v>
+        <v>6234</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>23053</v>
+        <v>24349</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04604938969530454</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02408716961812181</v>
+        <v>0.02210589917840057</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08174764307518455</v>
+        <v>0.08634428039383284</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>29</v>
@@ -8070,19 +8070,19 @@
         <v>31642</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>21779</v>
+        <v>21965</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>45156</v>
+        <v>46135</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03021562162008729</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02079767956389045</v>
+        <v>0.02097484305282874</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04312035593582737</v>
+        <v>0.04405520685228402</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>40</v>
@@ -8091,19 +8091,19 @@
         <v>44628</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>33085</v>
+        <v>32212</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>61081</v>
+        <v>59318</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03357489033303907</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0248909871162417</v>
+        <v>0.02423390766591802</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04595340070666764</v>
+        <v>0.04462630148350445</v>
       </c>
     </row>
     <row r="30">
@@ -8120,19 +8120,19 @@
         <v>39413</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>29697</v>
+        <v>29246</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>55030</v>
+        <v>51347</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1397630612631666</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.105308758606501</v>
+        <v>0.1037083399927522</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1951413130193848</v>
+        <v>0.1820804445524166</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>74</v>
@@ -8141,19 +8141,19 @@
         <v>77249</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>62055</v>
+        <v>61805</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>96269</v>
+        <v>95625</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07376692042953169</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05925796074488549</v>
+        <v>0.05901940893008691</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09192985936990944</v>
+        <v>0.0913146849685144</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>113</v>
@@ -8162,19 +8162,19 @@
         <v>116662</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>98116</v>
+        <v>96902</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>141559</v>
+        <v>138759</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08776856362809468</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07381549179711991</v>
+        <v>0.07290222675378766</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1064987443262853</v>
+        <v>0.1043921736438847</v>
       </c>
     </row>
     <row r="31">
@@ -8191,19 +8191,19 @@
         <v>52754</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>40512</v>
+        <v>41426</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>67586</v>
+        <v>66623</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1870688671893099</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1436572142309113</v>
+        <v>0.1468993683314672</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2396664431279287</v>
+        <v>0.2362491038620011</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>138</v>
@@ -8212,19 +8212,19 @@
         <v>146328</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>123288</v>
+        <v>124506</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>169820</v>
+        <v>168403</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1397322958465513</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1177308363116508</v>
+        <v>0.1188934309832451</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1621657338257156</v>
+        <v>0.1608126446115686</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>189</v>
@@ -8233,19 +8233,19 @@
         <v>199082</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>173741</v>
+        <v>172638</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>226667</v>
+        <v>226034</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1497751525016913</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1307103078637722</v>
+        <v>0.1298808878203367</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1705283885828997</v>
+        <v>0.1700516663245746</v>
       </c>
     </row>
     <row r="32">
@@ -8262,19 +8262,19 @@
         <v>176849</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>159389</v>
+        <v>159529</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>192359</v>
+        <v>191692</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6271186818522189</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5652058970245996</v>
+        <v>0.5657017117941366</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6821175521038491</v>
+        <v>0.6797549938579298</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>720</v>
@@ -8283,19 +8283,19 @@
         <v>791984</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>761756</v>
+        <v>761993</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>821666</v>
+        <v>820611</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7562851621038298</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7274191577424136</v>
+        <v>0.7276460856912855</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7846287229230907</v>
+        <v>0.7836216783738931</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>886</v>
@@ -8304,19 +8304,19 @@
         <v>968833</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>934430</v>
+        <v>936072</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1003545</v>
+        <v>1002730</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.728881393537175</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7029990816921105</v>
+        <v>0.7042342321542667</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7549962552784839</v>
+        <v>0.7543832188948107</v>
       </c>
     </row>
     <row r="33">
@@ -8408,19 +8408,19 @@
         <v>125649</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>102962</v>
+        <v>106311</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>147783</v>
+        <v>148950</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03791964934504412</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03107304542270662</v>
+        <v>0.03208374263848735</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04459965392347064</v>
+        <v>0.04495163663873519</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>117</v>
@@ -8429,19 +8429,19 @@
         <v>121509</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>100269</v>
+        <v>100708</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>146090</v>
+        <v>142458</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03534325425916652</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02916516981082155</v>
+        <v>0.02929301897753718</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04249318203900146</v>
+        <v>0.04143671743300818</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>231</v>
@@ -8450,19 +8450,19 @@
         <v>247157</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>215641</v>
+        <v>213263</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>281545</v>
+        <v>279490</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03660771517856522</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03193962576027765</v>
+        <v>0.03158750127979805</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04170102189049874</v>
+        <v>0.04139662985342227</v>
       </c>
     </row>
     <row r="35">
@@ -8479,19 +8479,19 @@
         <v>281376</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>249740</v>
+        <v>246856</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>316599</v>
+        <v>313879</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08491665864302032</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07536933234241447</v>
+        <v>0.07449880718553027</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09554653977134452</v>
+        <v>0.09472571231429752</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>242</v>
@@ -8500,19 +8500,19 @@
         <v>250976</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>221646</v>
+        <v>221404</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>280775</v>
+        <v>283311</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07300159244460003</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06447036481182561</v>
+        <v>0.06439981385189963</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08166918650178383</v>
+        <v>0.08240677950731239</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>506</v>
@@ -8521,19 +8521,19 @@
         <v>532352</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>491723</v>
+        <v>494089</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>580852</v>
+        <v>580635</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0788493506717971</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07283150484844207</v>
+        <v>0.07318194479129991</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08603286132798323</v>
+        <v>0.08600079308811459</v>
       </c>
     </row>
     <row r="36">
@@ -8550,19 +8550,19 @@
         <v>598198</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>556485</v>
+        <v>552520</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>640059</v>
+        <v>638733</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1805307858209151</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1679420709068823</v>
+        <v>0.1667453951076288</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1931639865485772</v>
+        <v>0.1927638348247536</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>530</v>
@@ -8571,19 +8571,19 @@
         <v>556960</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>513195</v>
+        <v>512451</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>607157</v>
+        <v>599098</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1620031239868069</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1492732733586791</v>
+        <v>0.149056768822562</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1766038157482067</v>
+        <v>0.1742597956511668</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1091</v>
@@ -8592,19 +8592,19 @@
         <v>1155158</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1093464</v>
+        <v>1098123</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1214588</v>
+        <v>1217043</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1710962574295314</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1619583318742878</v>
+        <v>0.1626484745544494</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1798987182052115</v>
+        <v>0.180262336579302</v>
       </c>
     </row>
     <row r="37">
@@ -8621,19 +8621,19 @@
         <v>2308330</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2254734</v>
+        <v>2260711</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2363743</v>
+        <v>2367311</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6966329061910205</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6804581279432712</v>
+        <v>0.6822619243893188</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7133561618100485</v>
+        <v>0.714432906399305</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2349</v>
@@ -8642,19 +8642,19 @@
         <v>2508513</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2460752</v>
+        <v>2451495</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2560165</v>
+        <v>2559281</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.7296520293094265</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.7157598581192711</v>
+        <v>0.7130671294589209</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7446760329449859</v>
+        <v>0.7444187935743235</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4567</v>
@@ -8663,19 +8663,19 @@
         <v>4816844</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4741160</v>
+        <v>4737198</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4890937</v>
+        <v>4887645</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.7134466767201063</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.7022367001007063</v>
+        <v>0.701649988275822</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7244210354890827</v>
+        <v>0.7239333365282471</v>
       </c>
     </row>
     <row r="38">
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6973</v>
+        <v>6866</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003454082967556217</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0126636018456517</v>
+        <v>0.01246964543921456</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -9030,19 +9030,19 @@
         <v>3730</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1599</v>
+        <v>1272</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7784</v>
+        <v>8050</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.007701804035836876</v>
+        <v>0.007701804035836878</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003301794882450478</v>
+        <v>0.002626178724037853</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01607309426071788</v>
+        <v>0.01662169251485197</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -9051,19 +9051,19 @@
         <v>5632</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2685</v>
+        <v>2441</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11337</v>
+        <v>10657</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005441823588154471</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002594473328401822</v>
+        <v>0.002358606498708926</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0109543212562081</v>
+        <v>0.01029774103367669</v>
       </c>
     </row>
     <row r="5">
@@ -9080,19 +9080,19 @@
         <v>34552</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22785</v>
+        <v>21852</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>51927</v>
+        <v>51070</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06275050004895208</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04138077528677296</v>
+        <v>0.03968554415495887</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09430666092540085</v>
+        <v>0.09275042385758503</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -9101,19 +9101,19 @@
         <v>22029</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13661</v>
+        <v>14019</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35048</v>
+        <v>34661</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04548700176959983</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02820928871059299</v>
+        <v>0.02894676691668895</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07237061887250254</v>
+        <v>0.0715715336442992</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>55</v>
@@ -9122,19 +9122,19 @@
         <v>56580</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42603</v>
+        <v>40721</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>75489</v>
+        <v>76985</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05467196658785873</v>
+        <v>0.05467196658785872</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04116608747399422</v>
+        <v>0.03934724893554585</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07294301856419552</v>
+        <v>0.07438817982571171</v>
       </c>
     </row>
     <row r="6">
@@ -9151,19 +9151,19 @@
         <v>57614</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45153</v>
+        <v>42711</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>74527</v>
+        <v>73194</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1046350108252067</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08200391085899462</v>
+        <v>0.07756945879531349</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.135352420751201</v>
+        <v>0.1329312473419468</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>79</v>
@@ -9172,19 +9172,19 @@
         <v>55297</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>44416</v>
+        <v>44195</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>68633</v>
+        <v>68627</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1141815845016995</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09171404131862999</v>
+        <v>0.09125711998884532</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.141719132239165</v>
+        <v>0.1417073991021076</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>137</v>
@@ -9193,19 +9193,19 @@
         <v>112911</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>95678</v>
+        <v>96632</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>132401</v>
+        <v>133101</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1091023739074958</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09245053315301131</v>
+        <v>0.09337301083476575</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1279348604399199</v>
+        <v>0.1286117398069109</v>
       </c>
     </row>
     <row r="7">
@@ -9222,19 +9222,19 @@
         <v>456551</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>436270</v>
+        <v>435260</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>474438</v>
+        <v>475343</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.829160406158285</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7923281886079052</v>
+        <v>0.7904929425570979</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8616465145506146</v>
+        <v>0.8632898876853182</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>571</v>
@@ -9243,19 +9243,19 @@
         <v>403234</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>387733</v>
+        <v>385632</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>416736</v>
+        <v>416874</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8326296096928638</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8006205952489106</v>
+        <v>0.7962825597662785</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8605098564841375</v>
+        <v>0.8607942847575684</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1037</v>
@@ -9264,19 +9264,19 @@
         <v>859785</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>834155</v>
+        <v>834183</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>880504</v>
+        <v>883288</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.830783835916491</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8060188219843736</v>
+        <v>0.8060459649309512</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8508044150050333</v>
+        <v>0.8534938671238449</v>
       </c>
     </row>
     <row r="8">
@@ -9368,19 +9368,19 @@
         <v>5632</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2074</v>
+        <v>2244</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13007</v>
+        <v>13406</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01167983625797045</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.00430123273225601</v>
+        <v>0.004652884570644963</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02697413849198219</v>
+        <v>0.02780121465269967</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -9389,19 +9389,19 @@
         <v>4246</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1940</v>
+        <v>1826</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9148</v>
+        <v>9081</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01005211732866483</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.004593268855003076</v>
+        <v>0.004321810300644767</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02165456422008664</v>
+        <v>0.02149655002553739</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -9410,19 +9410,19 @@
         <v>9878</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5538</v>
+        <v>5234</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17801</v>
+        <v>17986</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01091975378947382</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.006121606783106917</v>
+        <v>0.005785515545128602</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01967781048995665</v>
+        <v>0.01988193500403398</v>
       </c>
     </row>
     <row r="10">
@@ -9439,19 +9439,19 @@
         <v>28354</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18325</v>
+        <v>18669</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43291</v>
+        <v>43825</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05880083434643067</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03800256863921954</v>
+        <v>0.0387160433274825</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08977651944282086</v>
+        <v>0.09088307920493426</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -9460,19 +9460,19 @@
         <v>23503</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15723</v>
+        <v>16128</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33344</v>
+        <v>32569</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05563656651374574</v>
+        <v>0.05563656651374573</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03722006183360628</v>
+        <v>0.03817834896530752</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07893348284217203</v>
+        <v>0.07709802175768264</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -9481,19 +9481,19 @@
         <v>51857</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39322</v>
+        <v>39268</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68787</v>
+        <v>67754</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05732324232366193</v>
+        <v>0.05732324232366194</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04346677059427785</v>
+        <v>0.04340686600123352</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07603825349084778</v>
+        <v>0.074896564538058</v>
       </c>
     </row>
     <row r="11">
@@ -9510,19 +9510,19 @@
         <v>54967</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42984</v>
+        <v>41747</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>71856</v>
+        <v>71613</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1139892465578401</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08914036647997445</v>
+        <v>0.08657481377718383</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1490151384208277</v>
+        <v>0.1485110774950453</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>67</v>
@@ -9531,19 +9531,19 @@
         <v>44146</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>35028</v>
+        <v>34775</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56128</v>
+        <v>55652</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1045049469611592</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0829191869960139</v>
+        <v>0.08232178054153964</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1328679703732114</v>
+        <v>0.1317418883403907</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>120</v>
@@ -9552,19 +9552,19 @@
         <v>99113</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>82352</v>
+        <v>82819</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>120945</v>
+        <v>121249</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1095604414861426</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09103277834241005</v>
+        <v>0.09154927455291996</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1336938562471571</v>
+        <v>0.1340300402227585</v>
       </c>
     </row>
     <row r="12">
@@ -9581,19 +9581,19 @@
         <v>393255</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>372736</v>
+        <v>371712</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>410198</v>
+        <v>410409</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8155300828377589</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.772978665534201</v>
+        <v>0.7708549428749302</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8506659097397757</v>
+        <v>0.8511029913595117</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>483</v>
@@ -9602,19 +9602,19 @@
         <v>350537</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>336959</v>
+        <v>336334</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>362266</v>
+        <v>363155</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8298063691964304</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7976647738183928</v>
+        <v>0.796183845274877</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8575715081748365</v>
+        <v>0.8596766874112679</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>880</v>
@@ -9623,19 +9623,19 @@
         <v>743792</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>718966</v>
+        <v>720910</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>764669</v>
+        <v>764514</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8221965624007216</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7947540759735314</v>
+        <v>0.7969030257907105</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8452741565587499</v>
+        <v>0.84510287388895</v>
       </c>
     </row>
     <row r="13">
@@ -9727,19 +9727,19 @@
         <v>6104</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2912</v>
+        <v>2652</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11592</v>
+        <v>11641</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0129716947408608</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006189643828632737</v>
+        <v>0.005635516199276116</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02463648619023076</v>
+        <v>0.02473997504621743</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2751</v>
+        <v>2898</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003398580606259046</v>
@@ -9760,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01483857040161746</v>
+        <v>0.01563618924385334</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -9769,19 +9769,19 @@
         <v>6734</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3238</v>
+        <v>3135</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12891</v>
+        <v>12051</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01026616733398723</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004936770989294179</v>
+        <v>0.004780144620267529</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01965400351599098</v>
+        <v>0.01837315587795687</v>
       </c>
     </row>
     <row r="15">
@@ -9798,19 +9798,19 @@
         <v>25007</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16666</v>
+        <v>15140</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>37759</v>
+        <v>36618</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05314654138538217</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03541881117195224</v>
+        <v>0.03217557237710614</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08024797169118655</v>
+        <v>0.07782282295527558</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>8</v>
@@ -9819,19 +9819,19 @@
         <v>4836</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2257</v>
+        <v>2369</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9147</v>
+        <v>9100</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02608875692257338</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01217543387779297</v>
+        <v>0.01278161752751526</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04934749750366305</v>
+        <v>0.04909103720627865</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>30</v>
@@ -9840,19 +9840,19 @@
         <v>29843</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>20436</v>
+        <v>20768</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>41835</v>
+        <v>42091</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.04549954413828914</v>
+        <v>0.04549954413828913</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03115690313837</v>
+        <v>0.0316635852887817</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06378333493743292</v>
+        <v>0.06417298277901415</v>
       </c>
     </row>
     <row r="16">
@@ -9869,19 +9869,19 @@
         <v>49066</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36154</v>
+        <v>37472</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64902</v>
+        <v>63808</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1042785987302969</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07683596851877063</v>
+        <v>0.0796385635453441</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1379335719547178</v>
+        <v>0.1356090030452407</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -9890,19 +9890,19 @@
         <v>13190</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8572</v>
+        <v>8807</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18822</v>
+        <v>19202</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0711537753682254</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04624301483262212</v>
+        <v>0.04751163662399355</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1015384257835644</v>
+        <v>0.1035873228209167</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -9911,19 +9911,19 @@
         <v>62256</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>48516</v>
+        <v>49129</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>76240</v>
+        <v>78531</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09491695149682235</v>
+        <v>0.09491695149682236</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07396899382788481</v>
+        <v>0.07490298477133533</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1162367175246018</v>
+        <v>0.1197304356962989</v>
       </c>
     </row>
     <row r="17">
@@ -9940,19 +9940,19 @@
         <v>390354</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>371948</v>
+        <v>372590</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>405430</v>
+        <v>406512</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8296031651434601</v>
+        <v>0.8296031651434603</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7904847910312441</v>
+        <v>0.7918507800604684</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8616428331553174</v>
+        <v>0.8639423183515968</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>253</v>
@@ -9961,19 +9961,19 @@
         <v>166713</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>159265</v>
+        <v>159028</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>172227</v>
+        <v>171999</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8993588871029421</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8591765095777153</v>
+        <v>0.8579018708318152</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9291020155924264</v>
+        <v>0.9278757952646373</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>662</v>
@@ -9982,19 +9982,19 @@
         <v>557067</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>537929</v>
+        <v>537283</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>573686</v>
+        <v>574179</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8493173370309013</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8201394909964427</v>
+        <v>0.8191543296247382</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.87465445272369</v>
+        <v>0.8754068292605501</v>
       </c>
     </row>
     <row r="18">
@@ -10086,19 +10086,19 @@
         <v>19382</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11069</v>
+        <v>11004</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33590</v>
+        <v>33240</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.0172329309558469</v>
+        <v>0.01723293095584691</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009841681003724111</v>
+        <v>0.009783930158953858</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02986537869435381</v>
+        <v>0.02955376169823814</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -10107,19 +10107,19 @@
         <v>15836</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9305</v>
+        <v>9335</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25461</v>
+        <v>25772</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.01850422336697896</v>
+        <v>0.01850422336697897</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01087240903994288</v>
+        <v>0.01090747004884789</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02975108276728535</v>
+        <v>0.03011374290270586</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>33</v>
@@ -10128,19 +10128,19 @@
         <v>35218</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23458</v>
+        <v>23878</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51145</v>
+        <v>52486</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01778226930147367</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01184449622734293</v>
+        <v>0.01205613162518109</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02582401332298064</v>
+        <v>0.02650082677784288</v>
       </c>
     </row>
     <row r="20">
@@ -10157,19 +10157,19 @@
         <v>93644</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>70396</v>
+        <v>72829</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>119200</v>
+        <v>118786</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08325977990592134</v>
+        <v>0.08325977990592137</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06258976713652918</v>
+        <v>0.06475330082040724</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1059822346631791</v>
+        <v>0.1056138036421777</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>66</v>
@@ -10178,19 +10178,19 @@
         <v>50292</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>39131</v>
+        <v>40089</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>64697</v>
+        <v>65980</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.05876563371580007</v>
+        <v>0.05876563371580006</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04572438750414134</v>
+        <v>0.04684366070056424</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07559825615224768</v>
+        <v>0.07709728481509871</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>141</v>
@@ -10199,19 +10199,19 @@
         <v>143936</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>119535</v>
+        <v>119034</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>177585</v>
+        <v>170886</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07267561089193386</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06035524969603012</v>
+        <v>0.06010239562653508</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08966543429743519</v>
+        <v>0.08628282929921803</v>
       </c>
     </row>
     <row r="21">
@@ -10228,19 +10228,19 @@
         <v>167487</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>141572</v>
+        <v>140157</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>196433</v>
+        <v>195428</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1489145575729354</v>
+        <v>0.1489145575729355</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1258734284905205</v>
+        <v>0.1246153406208227</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1746505668209221</v>
+        <v>0.1737567376180678</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>187</v>
@@ -10249,19 +10249,19 @@
         <v>126480</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>109511</v>
+        <v>109757</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>144638</v>
+        <v>145903</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1477908805118552</v>
+        <v>0.1477908805118553</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1279623222216797</v>
+        <v>0.1282494201338979</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1690074984763972</v>
+        <v>0.170486269986548</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>335</v>
@@ -10270,19 +10270,19 @@
         <v>293968</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>261940</v>
+        <v>262514</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>328680</v>
+        <v>331133</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1484290053173353</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1322579076678218</v>
+        <v>0.1325473451873549</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1659555312542373</v>
+        <v>0.1671941837973624</v>
       </c>
     </row>
     <row r="22">
@@ -10299,19 +10299,19 @@
         <v>844207</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>812096</v>
+        <v>812182</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>880706</v>
+        <v>877022</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7505927315652964</v>
+        <v>0.7505927315652965</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7220421551774806</v>
+        <v>0.7221188033823426</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7830438732504283</v>
+        <v>0.7797686119125504</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>953</v>
@@ -10320,19 +10320,19 @@
         <v>663198</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>642700</v>
+        <v>639059</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>684882</v>
+        <v>684450</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7749392624053657</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7509879091776992</v>
+        <v>0.7467329208436838</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8002773475556277</v>
+        <v>0.7997719747564657</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1826</v>
@@ -10341,19 +10341,19 @@
         <v>1507406</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1466276</v>
+        <v>1465835</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1548083</v>
+        <v>1548738</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7611131144892571</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7403460669063848</v>
+        <v>0.7401234767244494</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7816516507488948</v>
+        <v>0.781982617033293</v>
       </c>
     </row>
     <row r="23">
@@ -10445,19 +10445,19 @@
         <v>7566</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3226</v>
+        <v>3432</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14576</v>
+        <v>15030</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01332173319898954</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.005679309789227257</v>
+        <v>0.006042915141581584</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02566425848033785</v>
+        <v>0.02646286436843889</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -10466,19 +10466,19 @@
         <v>8677</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4269</v>
+        <v>4454</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15699</v>
+        <v>15740</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01048942480708199</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.005160258416552673</v>
+        <v>0.005384119524570003</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01897852947724532</v>
+        <v>0.01902738530329337</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -10487,19 +10487,19 @@
         <v>16243</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10049</v>
+        <v>9623</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>25692</v>
+        <v>25500</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01164242568930204</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007202453079851145</v>
+        <v>0.006897320498504687</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01841489976688314</v>
+        <v>0.01827688798301961</v>
       </c>
     </row>
     <row r="25">
@@ -10516,19 +10516,19 @@
         <v>39094</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27194</v>
+        <v>27375</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53042</v>
+        <v>53310</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.06883265367125009</v>
+        <v>0.06883265367125008</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04787954832153001</v>
+        <v>0.04819849579843787</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09339003652399573</v>
+        <v>0.09386076035760126</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>52</v>
@@ -10537,19 +10537,19 @@
         <v>34389</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>25918</v>
+        <v>25495</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44301</v>
+        <v>46281</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04157133033631009</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03133143916077814</v>
+        <v>0.03081971046761889</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05355443055527292</v>
+        <v>0.05594766023529122</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>88</v>
@@ -10558,19 +10558,19 @@
         <v>73483</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>59296</v>
+        <v>58329</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>91312</v>
+        <v>90785</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05266910836976157</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04250029497864321</v>
+        <v>0.04180758850893374</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06544781191947487</v>
+        <v>0.06506993777910035</v>
       </c>
     </row>
     <row r="26">
@@ -10587,19 +10587,19 @@
         <v>59069</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45499</v>
+        <v>44581</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>80284</v>
+        <v>77382</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1040012560149346</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08010929684537185</v>
+        <v>0.07849278274146247</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1413546994674808</v>
+        <v>0.1362453561180655</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>134</v>
@@ -10608,19 +10608,19 @@
         <v>90069</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>75822</v>
+        <v>75073</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>106827</v>
+        <v>107289</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1088819733863949</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09165835155956376</v>
+        <v>0.09075356022454656</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1291403577571586</v>
+        <v>0.1296979558437746</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>187</v>
@@ -10629,19 +10629,19 @@
         <v>149138</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>126724</v>
+        <v>128321</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>170277</v>
+        <v>174044</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1068950882536745</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09082993094503682</v>
+        <v>0.09197436477549731</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1220461123382283</v>
+        <v>0.1247466137588369</v>
       </c>
     </row>
     <row r="27">
@@ -10658,19 +10658,19 @@
         <v>462234</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>440062</v>
+        <v>440815</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>481169</v>
+        <v>481255</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8138443571148258</v>
+        <v>0.8138443571148257</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7748055366206259</v>
+        <v>0.7761315624966848</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8471825387042951</v>
+        <v>0.8473329105233524</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1088</v>
@@ -10679,19 +10679,19 @@
         <v>694085</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>674979</v>
+        <v>675149</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>711334</v>
+        <v>713151</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8390572714702129</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8159612254829357</v>
+        <v>0.8161659606861148</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8599087593858403</v>
+        <v>0.8621050818856048</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1538</v>
@@ -10700,19 +10700,19 @@
         <v>1156319</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1126860</v>
+        <v>1126835</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1181871</v>
+        <v>1184035</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.8287933776872619</v>
+        <v>0.8287933776872617</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.807678509710931</v>
+        <v>0.8076601483956263</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8471074416639397</v>
+        <v>0.8486589941488555</v>
       </c>
     </row>
     <row r="28">
@@ -10817,19 +10817,19 @@
         <v>8482</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3592</v>
+        <v>3651</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>16110</v>
+        <v>16483</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01007317988959401</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.004265713207426678</v>
+        <v>0.004336391948655129</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01913182447215321</v>
+        <v>0.01957499807791705</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -10838,19 +10838,19 @@
         <v>8482</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3990</v>
+        <v>4132</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>18411</v>
+        <v>18035</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.007873591069913213</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003704230598662911</v>
+        <v>0.003835700887346661</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01709030440480893</v>
+        <v>0.0167408435080639</v>
       </c>
     </row>
     <row r="30">
@@ -10867,19 +10867,19 @@
         <v>6656</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1756</v>
+        <v>1749</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18453</v>
+        <v>20309</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.02829551095632621</v>
+        <v>0.02829551095632622</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.007464050710534909</v>
+        <v>0.007433108012279059</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07844684932707172</v>
+        <v>0.08633325271972128</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>30</v>
@@ -10888,19 +10888,19 @@
         <v>22566</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>15334</v>
+        <v>14849</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>33272</v>
+        <v>32287</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.02679912786113496</v>
+        <v>0.02679912786113497</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01821066034214862</v>
+        <v>0.01763445684499845</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03951324328150901</v>
+        <v>0.03834378835445446</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>33</v>
@@ -10909,19 +10909,19 @@
         <v>29222</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>19266</v>
+        <v>19595</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>42495</v>
+        <v>43262</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.02712587944923499</v>
+        <v>0.02712587944923498</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01788416362795969</v>
+        <v>0.01818927450407058</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03944659876598486</v>
+        <v>0.04015880287149313</v>
       </c>
     </row>
     <row r="31">
@@ -10938,19 +10938,19 @@
         <v>38195</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>22183</v>
+        <v>21633</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>57675</v>
+        <v>60207</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1623715107520876</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09430081695111239</v>
+        <v>0.09196465244962064</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2451785066532793</v>
+        <v>0.2559447035340875</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>67</v>
@@ -10959,19 +10959,19 @@
         <v>57024</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>42862</v>
+        <v>44512</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>75359</v>
+        <v>76336</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0677208618281495</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05090200272134943</v>
+        <v>0.05286133218958251</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08949534320053265</v>
+        <v>0.09065596520218738</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>81</v>
@@ -10980,19 +10980,19 @@
         <v>95219</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>72963</v>
+        <v>72228</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>128469</v>
+        <v>123601</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08838886452744581</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06772875572906781</v>
+        <v>0.06704645664830522</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1192529485469586</v>
+        <v>0.1147349300468156</v>
       </c>
     </row>
     <row r="32">
@@ -11009,19 +11009,19 @@
         <v>190383</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>169886</v>
+        <v>167052</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>208924</v>
+        <v>207148</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.8093329782915861</v>
+        <v>0.8093329782915863</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7221980580531974</v>
+        <v>0.7101481183594291</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.888149003005654</v>
+        <v>0.8806015796574963</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1049</v>
@@ -11030,19 +11030,19 @@
         <v>753971</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>733781</v>
+        <v>734322</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>770555</v>
+        <v>771340</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.8954068304211215</v>
+        <v>0.8954068304211213</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8714293001679045</v>
+        <v>0.8720723548937218</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9151014038461867</v>
+        <v>0.916034454729089</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1143</v>
@@ -11051,19 +11051,19 @@
         <v>944354</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>913385</v>
+        <v>913355</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>969077</v>
+        <v>971929</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.8766116649534059</v>
+        <v>0.876611664953406</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8478635019046027</v>
+        <v>0.8478360081291244</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8995610282724332</v>
+        <v>0.9022082363465405</v>
       </c>
     </row>
     <row r="33">
@@ -11155,19 +11155,19 @@
         <v>40586</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>28789</v>
+        <v>29550</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>58310</v>
+        <v>58007</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01182827103577178</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.008390130110609621</v>
+        <v>0.00861190126583344</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0169936370687945</v>
+        <v>0.01690524946661525</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>50</v>
@@ -11176,19 +11176,19 @@
         <v>41601</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>31570</v>
+        <v>30718</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>57187</v>
+        <v>55599</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01150111556283105</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.008727866770028566</v>
+        <v>0.008492262650708918</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0158099465802248</v>
+        <v>0.01537101447355002</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>90</v>
@@ -11197,19 +11197,19 @@
         <v>82187</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>65351</v>
+        <v>65598</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>104383</v>
+        <v>105021</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01166037940425252</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.009271660753466476</v>
+        <v>0.009306784068096329</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01480939119004378</v>
+        <v>0.01489993646273067</v>
       </c>
     </row>
     <row r="35">
@@ -11226,19 +11226,19 @@
         <v>227308</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>196255</v>
+        <v>192213</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>268524</v>
+        <v>261426</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06624573255626375</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05719588245329256</v>
+        <v>0.05601803511878552</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07825770382315016</v>
+        <v>0.07618920681070612</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>216</v>
@@ -11247,19 +11247,19 @@
         <v>157614</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>136389</v>
+        <v>136911</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>180348</v>
+        <v>181941</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04357403647811571</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03770597800130264</v>
+        <v>0.03785030890691187</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04985902373814938</v>
+        <v>0.05029944055227833</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>404</v>
@@ -11268,19 +11268,19 @@
         <v>384922</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>348115</v>
+        <v>347048</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>431462</v>
+        <v>427633</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.05461093394001441</v>
+        <v>0.05461093394001442</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04938902420389576</v>
+        <v>0.04923750490719409</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06121387064592113</v>
+        <v>0.06067056176803871</v>
       </c>
     </row>
     <row r="36">
@@ -11297,19 +11297,19 @@
         <v>426399</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>385864</v>
+        <v>383401</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>479305</v>
+        <v>472775</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1242681830653855</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1124548086006236</v>
+        <v>0.1117372292086481</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1396869112588422</v>
+        <v>0.1377839107442103</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>558</v>
@@ -11318,19 +11318,19 @@
         <v>386207</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>355504</v>
+        <v>355062</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>427435</v>
+        <v>421375</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1067706447124323</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09828258041243187</v>
+        <v>0.09816044576403719</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1181685891414275</v>
+        <v>0.1164932722573352</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>932</v>
@@ -11339,19 +11339,19 @@
         <v>812605</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>759603</v>
+        <v>758552</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>874242</v>
+        <v>870570</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1152886901189831</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1077690377948185</v>
+        <v>0.1076198772606403</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1240334490263383</v>
+        <v>0.1235124158677889</v>
       </c>
     </row>
     <row r="37">
@@ -11368,19 +11368,19 @@
         <v>2736986</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2674773</v>
+        <v>2684167</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2788069</v>
+        <v>2790083</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.797657813342579</v>
+        <v>0.7976578133425789</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7795268084322389</v>
+        <v>0.7822645281041944</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8125454866081261</v>
+        <v>0.8131323273250146</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>4397</v>
@@ -11389,19 +11389,19 @@
         <v>3031738</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2988775</v>
+        <v>2988169</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3068677</v>
+        <v>3068086</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.8381542032466208</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8262765639788228</v>
+        <v>0.8261092015484206</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.848366280487118</v>
+        <v>0.8482028923695846</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>7086</v>
@@ -11410,19 +11410,19 @@
         <v>5768724</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>5694460</v>
+        <v>5699405</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>5832429</v>
+        <v>5834914</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.8184399965367498</v>
+        <v>0.8184399965367499</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8079037773436563</v>
+        <v>0.8086053772993899</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8274782968545651</v>
+        <v>0.8278307892471953</v>
       </c>
     </row>
     <row r="38">
